--- a/app/data/static/params/butter_test.xlsx
+++ b/app/data/static/params/butter_test.xlsx
@@ -140,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -186,16 +186,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -259,7 +254,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -301,10 +296,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -388,7 +379,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q12" activeCellId="0" sqref="Q12"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -454,7 +445,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -501,7 +492,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
@@ -548,7 +539,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>22</v>
@@ -598,7 +589,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>26</v>
@@ -645,7 +636,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>28</v>
@@ -692,7 +683,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>31</v>
@@ -737,7 +728,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>33</v>
@@ -780,7 +771,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
@@ -796,7 +790,7 @@
       <c r="G9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="0" t="n">
@@ -820,7 +814,7 @@
       <c r="O9" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="10" t="s">
         <v>36</v>
       </c>
     </row>
